--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/_AG-HIEPE_Common/ExperimentFolderTemplate_CMS/Ab.calc_sample.info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vonskopnik/Documents/R/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D80F5-F03C-FB43-9E28-A1EACA778E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD621A-F307-C74F-9C16-2D9291D12F06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31300" yWindow="2820" windowWidth="25820" windowHeight="23520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
@@ -24,460 +24,460 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="152">
   <si>
+    <t>Pe</t>
+  </si>
+  <si>
+    <t>PE-A</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>yg-586/15-E-A</t>
+  </si>
+  <si>
+    <t>Symphony</t>
+  </si>
+  <si>
+    <t>yg-582/15-D-A</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>b-LP502 530/30-E-A</t>
+  </si>
+  <si>
+    <t>b-505LP 530/30-E-A</t>
+  </si>
+  <si>
+    <t>b-LP505 525/50-B-A</t>
+  </si>
+  <si>
+    <t>V450</t>
+  </si>
+  <si>
+    <t>v-450/50-B-A</t>
+  </si>
+  <si>
+    <t>v-450/50-H-A</t>
+  </si>
+  <si>
+    <t>v-450/50-F-A</t>
+  </si>
+  <si>
+    <t>APCVio770</t>
+  </si>
+  <si>
+    <t>r-LP685 720/30-A-A</t>
+  </si>
+  <si>
+    <t>r-750LP 780/60-A-A</t>
+  </si>
+  <si>
+    <t>r-LP750 780/60-A-A</t>
+  </si>
+  <si>
+    <t>Calcein</t>
+  </si>
+  <si>
+    <t>A647</t>
+  </si>
+  <si>
+    <t>r-660/20-C-A</t>
+  </si>
+  <si>
+    <t>r-670/30-C-A</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>BV605</t>
+  </si>
+  <si>
+    <t>v-595LP 605/40-E-A</t>
+  </si>
+  <si>
+    <t>v-LP600 610/20-D-A</t>
+  </si>
+  <si>
+    <t>PeCy7</t>
+  </si>
+  <si>
+    <t>b-LP735 780/60-A-A</t>
+  </si>
+  <si>
+    <t>b-750LP 780/60-A-A</t>
+  </si>
+  <si>
+    <t>yg-750/LP 780/60-A-A</t>
+  </si>
+  <si>
+    <t>yg-LP750 780/60-A-A</t>
+  </si>
+  <si>
+    <t>BV421</t>
+  </si>
+  <si>
+    <t>BV510</t>
+  </si>
+  <si>
+    <t>v-LP502 510/50-A-A</t>
+  </si>
+  <si>
+    <t>v-505LP 525/50-G-A</t>
+  </si>
+  <si>
+    <t>v-LP505 525/50-E-A</t>
+  </si>
+  <si>
+    <t>PerCP</t>
+  </si>
+  <si>
+    <t>b-LP655 LP670-B-A</t>
+  </si>
+  <si>
+    <t>b-635LP 670/30-C-A</t>
+  </si>
+  <si>
+    <t>b-LP685 710/50-A-A</t>
+  </si>
+  <si>
+    <t>PerCPCy5.5</t>
+  </si>
+  <si>
+    <t>b-685LP 710/50-B-A</t>
+  </si>
+  <si>
+    <t>PeVio770</t>
+  </si>
+  <si>
+    <t>BV711</t>
+  </si>
+  <si>
+    <t>v-685LP 710/20-C-A</t>
+  </si>
+  <si>
+    <t>v-LP685 710/50-B-A</t>
+  </si>
+  <si>
+    <t>A488</t>
+  </si>
+  <si>
+    <t>APCCy7</t>
+  </si>
+  <si>
+    <t>eFluor450</t>
+  </si>
+  <si>
+    <t>PeVio615</t>
+  </si>
+  <si>
+    <t>yg-600LP 610/20-D-A</t>
+  </si>
+  <si>
+    <t>yg-LP600 610/20-C-A</t>
+  </si>
+  <si>
+    <t>BV650</t>
+  </si>
+  <si>
+    <t>v-635LP 677/20-D-A</t>
+  </si>
+  <si>
+    <t>v-LP650 660/20-C-A</t>
+  </si>
+  <si>
+    <t>PacBlue</t>
+  </si>
+  <si>
+    <t>VioGreen</t>
+  </si>
+  <si>
+    <t>PeCy5</t>
+  </si>
+  <si>
+    <t>yg-635LP 670/30-C-A</t>
+  </si>
+  <si>
+    <t>yg-LP635 670/30-B-A</t>
+  </si>
+  <si>
+    <t>BV786</t>
+  </si>
+  <si>
+    <t>v-750LP 780/60-A-A</t>
+  </si>
+  <si>
+    <t>v-LP750 800/60-A-A</t>
+  </si>
+  <si>
+    <t>BV785</t>
+  </si>
+  <si>
+    <t>A405</t>
+  </si>
+  <si>
+    <t>Cy5</t>
+  </si>
+  <si>
+    <t>BUV737</t>
+  </si>
+  <si>
+    <t>uv-690LP 735/30-B-A</t>
+  </si>
+  <si>
+    <t>A700</t>
+  </si>
+  <si>
+    <t>r-690LP 730/45-B-A</t>
+  </si>
+  <si>
+    <t>r-LP685 720/30-B-A</t>
+  </si>
+  <si>
+    <t>APCeF780</t>
+  </si>
+  <si>
+    <t>BUV805</t>
+  </si>
+  <si>
+    <t>uv-770LP 810/40-A-A</t>
+  </si>
+  <si>
+    <t>V500</t>
+  </si>
+  <si>
+    <t>BUV395</t>
+  </si>
+  <si>
+    <t>uv-379/28-G-A</t>
+  </si>
+  <si>
+    <t>APCH7</t>
+  </si>
+  <si>
+    <t>PeCF594</t>
+  </si>
+  <si>
+    <t>BUV563</t>
+  </si>
+  <si>
+    <t>uv-550LP 580/20-E-A</t>
+  </si>
+  <si>
+    <t>eFluor650NC</t>
+  </si>
+  <si>
+    <t>APCFire750</t>
+  </si>
+  <si>
+    <t>PerCPeF710</t>
+  </si>
+  <si>
+    <t>VioBlue</t>
+  </si>
+  <si>
+    <t>PeDazzle594</t>
+  </si>
+  <si>
+    <t>Hoechst33342</t>
+  </si>
+  <si>
+    <t>A674</t>
+  </si>
+  <si>
+    <t>VioBrightFITC</t>
+  </si>
+  <si>
+    <t>Conjugate</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>Micobead Kit</t>
+  </si>
+  <si>
+    <t>Biotin</t>
+  </si>
+  <si>
+    <t>functional grade</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>FSC-A</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>FSC-H</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>FSC-W</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>SSC-A</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>SSC-H</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>SSC-W</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>b-600LP 610/20-D-A</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>v-550LP 586/15-F-A</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>v-735LP 750/30-B-A</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>uv-450LP 515/30-F-A</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>uv-595LP 605/20-D-A</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>uv-630LP 670/25-C-A</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>yg-685LP 710/50-B-A</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>DAPI</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
     <t>machine</t>
-  </si>
-  <si>
-    <t>Pe</t>
-  </si>
-  <si>
-    <t>PE-A</t>
-  </si>
-  <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>yg-586/15-E-A</t>
-  </si>
-  <si>
-    <t>Symphony</t>
-  </si>
-  <si>
-    <t>yg-582/15-D-A</t>
-  </si>
-  <si>
-    <t>Wayne</t>
-  </si>
-  <si>
-    <t>FITC</t>
-  </si>
-  <si>
-    <t>b-LP502 530/30-E-A</t>
-  </si>
-  <si>
-    <t>b-505LP 530/30-E-A</t>
-  </si>
-  <si>
-    <t>b-LP505 525/50-B-A</t>
-  </si>
-  <si>
-    <t>V450</t>
-  </si>
-  <si>
-    <t>v-450/50-B-A</t>
-  </si>
-  <si>
-    <t>v-450/50-H-A</t>
-  </si>
-  <si>
-    <t>v-450/50-F-A</t>
-  </si>
-  <si>
-    <t>APCVio770</t>
-  </si>
-  <si>
-    <t>r-LP685 720/30-A-A</t>
-  </si>
-  <si>
-    <t>r-750LP 780/60-A-A</t>
-  </si>
-  <si>
-    <t>r-LP750 780/60-A-A</t>
-  </si>
-  <si>
-    <t>Calcein</t>
-  </si>
-  <si>
-    <t>A647</t>
-  </si>
-  <si>
-    <t>r-660/20-C-A</t>
-  </si>
-  <si>
-    <t>r-670/30-C-A</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>BV605</t>
-  </si>
-  <si>
-    <t>v-595LP 605/40-E-A</t>
-  </si>
-  <si>
-    <t>v-LP600 610/20-D-A</t>
-  </si>
-  <si>
-    <t>PeCy7</t>
-  </si>
-  <si>
-    <t>b-LP735 780/60-A-A</t>
-  </si>
-  <si>
-    <t>b-750LP 780/60-A-A</t>
-  </si>
-  <si>
-    <t>yg-750/LP 780/60-A-A</t>
-  </si>
-  <si>
-    <t>yg-LP750 780/60-A-A</t>
-  </si>
-  <si>
-    <t>BV421</t>
-  </si>
-  <si>
-    <t>BV510</t>
-  </si>
-  <si>
-    <t>v-LP502 510/50-A-A</t>
-  </si>
-  <si>
-    <t>v-505LP 525/50-G-A</t>
-  </si>
-  <si>
-    <t>v-LP505 525/50-E-A</t>
-  </si>
-  <si>
-    <t>PerCP</t>
-  </si>
-  <si>
-    <t>b-LP655 LP670-B-A</t>
-  </si>
-  <si>
-    <t>b-635LP 670/30-C-A</t>
-  </si>
-  <si>
-    <t>b-LP685 710/50-A-A</t>
-  </si>
-  <si>
-    <t>PerCPCy5.5</t>
-  </si>
-  <si>
-    <t>b-685LP 710/50-B-A</t>
-  </si>
-  <si>
-    <t>PeVio770</t>
-  </si>
-  <si>
-    <t>BV711</t>
-  </si>
-  <si>
-    <t>v-685LP 710/20-C-A</t>
-  </si>
-  <si>
-    <t>v-LP685 710/50-B-A</t>
-  </si>
-  <si>
-    <t>A488</t>
-  </si>
-  <si>
-    <t>APCCy7</t>
-  </si>
-  <si>
-    <t>eFluor450</t>
-  </si>
-  <si>
-    <t>PeVio615</t>
-  </si>
-  <si>
-    <t>yg-600LP 610/20-D-A</t>
-  </si>
-  <si>
-    <t>yg-LP600 610/20-C-A</t>
-  </si>
-  <si>
-    <t>BV650</t>
-  </si>
-  <si>
-    <t>v-635LP 677/20-D-A</t>
-  </si>
-  <si>
-    <t>v-LP650 660/20-C-A</t>
-  </si>
-  <si>
-    <t>PacBlue</t>
-  </si>
-  <si>
-    <t>VioGreen</t>
-  </si>
-  <si>
-    <t>PeCy5</t>
-  </si>
-  <si>
-    <t>yg-635LP 670/30-C-A</t>
-  </si>
-  <si>
-    <t>yg-LP635 670/30-B-A</t>
-  </si>
-  <si>
-    <t>BV786</t>
-  </si>
-  <si>
-    <t>v-750LP 780/60-A-A</t>
-  </si>
-  <si>
-    <t>v-LP750 800/60-A-A</t>
-  </si>
-  <si>
-    <t>BV785</t>
-  </si>
-  <si>
-    <t>A405</t>
-  </si>
-  <si>
-    <t>Cy5</t>
-  </si>
-  <si>
-    <t>BUV737</t>
-  </si>
-  <si>
-    <t>uv-690LP 735/30-B-A</t>
-  </si>
-  <si>
-    <t>A700</t>
-  </si>
-  <si>
-    <t>r-690LP 730/45-B-A</t>
-  </si>
-  <si>
-    <t>r-LP685 720/30-B-A</t>
-  </si>
-  <si>
-    <t>APCeF780</t>
-  </si>
-  <si>
-    <t>BUV805</t>
-  </si>
-  <si>
-    <t>uv-770LP 810/40-A-A</t>
-  </si>
-  <si>
-    <t>V500</t>
-  </si>
-  <si>
-    <t>BUV395</t>
-  </si>
-  <si>
-    <t>uv-379/28-G-A</t>
-  </si>
-  <si>
-    <t>APCH7</t>
-  </si>
-  <si>
-    <t>PeCF594</t>
-  </si>
-  <si>
-    <t>BUV563</t>
-  </si>
-  <si>
-    <t>uv-550LP 580/20-E-A</t>
-  </si>
-  <si>
-    <t>eFluor650NC</t>
-  </si>
-  <si>
-    <t>APCFire750</t>
-  </si>
-  <si>
-    <t>PerCPeF710</t>
-  </si>
-  <si>
-    <t>VioBlue</t>
-  </si>
-  <si>
-    <t>PeDazzle594</t>
-  </si>
-  <si>
-    <t>Hoechst33342</t>
-  </si>
-  <si>
-    <t>A674</t>
-  </si>
-  <si>
-    <t>VioBrightFITC</t>
-  </si>
-  <si>
-    <t>Conjugate</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>pure</t>
-  </si>
-  <si>
-    <t>Micobead Kit</t>
-  </si>
-  <si>
-    <t>Biotin</t>
-  </si>
-  <si>
-    <t>functional grade</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>FSC-A</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>FSC-H</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>FSC-W</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>SSC-A</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>SSC-H</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>SSC-W</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>b-600LP 610/20-D-A</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>v-550LP 586/15-F-A</t>
-  </si>
-  <si>
-    <t>P18</t>
-  </si>
-  <si>
-    <t>P19</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>v-735LP 750/30-B-A</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>uv-450LP 515/30-F-A</t>
-  </si>
-  <si>
-    <t>P25</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>uv-595LP 605/20-D-A</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>uv-630LP 670/25-C-A</t>
-  </si>
-  <si>
-    <t>P28</t>
-  </si>
-  <si>
-    <t>P29</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
-    <t>P31</t>
-  </si>
-  <si>
-    <t>P32</t>
-  </si>
-  <si>
-    <t>P33</t>
-  </si>
-  <si>
-    <t>yg-685LP 710/50-B-A</t>
-  </si>
-  <si>
-    <t>P34</t>
-  </si>
-  <si>
-    <t>P35</t>
-  </si>
-  <si>
-    <t>DAPI</t>
-  </si>
-  <si>
-    <t>PI</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,257 +821,257 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1094,586 +1094,586 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1686,7 @@
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1697,1399 +1697,1399 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
         <v>52</v>
       </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>62</v>
-      </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>65</v>
-      </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vonskopnik/Documents/R/fcexpr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe-1/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD621A-F307-C74F-9C16-2D9291D12F06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936E182-590D-784E-ACE6-5191C2274463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21000" yWindow="9320" windowWidth="32660" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
   <si>
     <t>Pe</t>
   </si>
@@ -297,24 +297,9 @@
     <t>Conjugate</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>pure</t>
-  </si>
-  <si>
-    <t>Micobead Kit</t>
-  </si>
-  <si>
     <t>Biotin</t>
   </si>
   <si>
-    <t>functional grade</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>ind</t>
   </si>
   <si>
@@ -478,6 +463,9 @@
   </si>
   <si>
     <t>machine</t>
+  </si>
+  <si>
+    <t>FVD450</t>
   </si>
 </sst>
 </file>
@@ -517,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,13 +799,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5135D16-BC18-F64E-8E92-7EBC3EF6EA9B}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -826,252 +817,242 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB2FBE-DBCB-9D46-8581-874600E7BD82}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1094,63 +1075,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1158,7 +1139,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1166,7 +1147,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -1174,7 +1155,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1182,7 +1163,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1190,7 +1171,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1198,7 +1179,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1206,7 +1187,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1214,63 +1195,63 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1278,15 +1259,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -1294,7 +1275,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -1302,7 +1283,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1310,7 +1291,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -1318,7 +1299,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1326,7 +1307,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1334,7 +1315,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -1342,7 +1323,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1350,15 +1331,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1366,7 +1347,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
@@ -1374,7 +1355,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -1382,15 +1363,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>62</v>
@@ -1398,7 +1379,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -1406,15 +1387,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1422,23 +1403,23 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
@@ -1446,7 +1427,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
         <v>74</v>
@@ -1454,7 +1435,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1462,7 +1443,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -1470,7 +1451,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
@@ -1478,15 +1459,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
@@ -1494,63 +1475,63 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -1558,7 +1539,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
@@ -1566,7 +1547,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -1574,7 +1555,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
@@ -1582,7 +1563,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -1590,7 +1571,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
         <v>55</v>
@@ -1598,7 +1579,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
@@ -1606,7 +1587,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -1614,7 +1595,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -1622,7 +1603,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
@@ -1630,7 +1611,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -1638,7 +1619,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1646,7 +1627,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
@@ -1654,7 +1635,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
@@ -1662,7 +1643,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
         <v>31</v>
@@ -1670,10 +1651,10 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1683,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1700,10 +1681,10 @@
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3028,7 +3009,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3039,7 +3020,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
@@ -3050,7 +3031,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -3061,7 +3042,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
         <v>38</v>
@@ -3072,7 +3053,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
         <v>39</v>
@@ -3083,12 +3064,45 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
         <v>40</v>
       </c>
       <c r="C127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
         <v>6</v>
       </c>
     </row>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -5,24 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe-1/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936E182-590D-784E-ACE6-5191C2274463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67019005-384F-7146-AD64-60413D99A172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="9320" windowWidth="32660" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
     <sheet name="channels" sheetId="3" r:id="rId2"/>
     <sheet name="matches" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$128</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
   <si>
     <t>Pe</t>
   </si>
@@ -1064,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB2FBE-DBCB-9D46-8581-874600E7BD82}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1664,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1689,10 +1692,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1700,32 +1703,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1733,32 +1736,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1766,29 +1769,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1802,29 +1805,29 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1832,32 +1835,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1865,29 +1868,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1898,54 +1901,54 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1953,43 +1956,43 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1997,32 +2000,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2030,32 +2033,32 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2063,32 +2066,32 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2096,10 +2099,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2107,32 +2110,32 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -2140,10 +2143,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -2151,32 +2154,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -2184,32 +2187,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -2217,32 +2220,32 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -2250,32 +2253,32 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -2283,21 +2286,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -2305,32 +2308,32 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -2338,29 +2341,29 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -2371,32 +2374,32 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -2404,21 +2407,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -2426,32 +2429,32 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -2459,32 +2462,32 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -2492,32 +2495,32 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -2525,32 +2528,32 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -2558,21 +2561,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -2580,21 +2583,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2602,43 +2605,43 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2646,43 +2649,43 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2690,24 +2693,24 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2715,15 +2718,15 @@
         <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
@@ -2734,21 +2737,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2756,43 +2759,43 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2800,32 +2803,32 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2833,21 +2836,21 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2855,29 +2858,29 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
@@ -2888,21 +2891,21 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -2910,32 +2913,32 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -2943,32 +2946,32 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2976,32 +2979,32 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -3009,29 +3012,29 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -3042,32 +3045,32 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -3075,38 +3078,20 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C130">
+    <sortCondition ref="C2:C130"/>
+    <sortCondition ref="A2:A130"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67019005-384F-7146-AD64-60413D99A172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3964B-8F2B-1145-8927-8961048FFE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="152">
   <si>
     <t>Pe</t>
   </si>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t>FVD450</t>
+  </si>
+  <si>
+    <t>7AAD</t>
+  </si>
+  <si>
+    <t>DRAQ7</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>7-AAD</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5135D16-BC18-F64E-8E92-7EBC3EF6EA9B}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1056,6 +1068,26 @@
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1667,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3087,6 +3119,138 @@
         <v>6</v>
       </c>
     </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C130">
     <sortCondition ref="C2:C130"/>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3964B-8F2B-1145-8927-8961048FFE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA0384-F46A-8B4A-9200-31EC35E5F57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="153">
   <si>
     <t>Pe</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>7-AAD</t>
+  </si>
+  <si>
+    <t>Resazurin</t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5135D16-BC18-F64E-8E92-7EBC3EF6EA9B}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
@@ -1088,6 +1091,11 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1699,9 +1707,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
       <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
@@ -3251,6 +3259,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C130">
     <sortCondition ref="C2:C130"/>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA0384-F46A-8B4A-9200-31EC35E5F57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B9B8EF-CE8C-5B4C-8F93-E6CB87C16E8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
     <sheet name="channels" sheetId="3" r:id="rId2"/>
     <sheet name="matches" sheetId="1" r:id="rId3"/>
+    <sheet name="CYT" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$125</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="171">
   <si>
     <t>Pe</t>
   </si>
@@ -484,6 +485,60 @@
   </si>
   <si>
     <t>Resazurin</t>
+  </si>
+  <si>
+    <t>FL1</t>
+  </si>
+  <si>
+    <t>FL2</t>
+  </si>
+  <si>
+    <t>FL3</t>
+  </si>
+  <si>
+    <t>FL4</t>
+  </si>
+  <si>
+    <t>FL5</t>
+  </si>
+  <si>
+    <t>FL6</t>
+  </si>
+  <si>
+    <t>FL7</t>
+  </si>
+  <si>
+    <t>FL8</t>
+  </si>
+  <si>
+    <t>FL9</t>
+  </si>
+  <si>
+    <t>FL10</t>
+  </si>
+  <si>
+    <t>FL11</t>
+  </si>
+  <si>
+    <t>FL12</t>
+  </si>
+  <si>
+    <t>$CYT</t>
+  </si>
+  <si>
+    <t>LSRFortessa</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>LE-MA900FP</t>
+  </si>
+  <si>
+    <t>BV570</t>
+  </si>
+  <si>
+    <t>PeTexasRed</t>
   </si>
 </sst>
 </file>
@@ -817,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5135D16-BC18-F64E-8E92-7EBC3EF6EA9B}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1098,6 +1153,11 @@
         <v>152</v>
       </c>
     </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1105,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB2FBE-DBCB-9D46-8581-874600E7BD82}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1700,6 +1760,102 @@
         <v>115</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1707,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1732,109 +1888,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1842,10 +1998,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1853,10 +2009,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1864,10 +2020,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1875,10 +2031,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1886,65 +2042,65 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1952,10 +2108,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1963,10 +2119,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1974,54 +2130,54 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2029,7 +2185,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2040,10 +2196,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2051,10 +2207,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2062,10 +2218,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2073,10 +2229,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2084,10 +2240,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2095,10 +2251,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2106,10 +2262,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2117,32 +2273,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2150,35 +2306,35 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,10 +2350,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2205,7 +2361,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -2216,7 +2372,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -2227,7 +2383,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -2238,7 +2394,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -2249,7 +2405,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -2260,164 +2416,164 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -2425,10 +2581,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -2436,10 +2592,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -2447,10 +2603,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -2458,200 +2614,200 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,164 +2815,164 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2824,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,10 +2991,10 @@
         <v>64</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,106 +3002,106 @@
         <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -2953,10 +3109,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -2964,10 +3120,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2975,10 +3131,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -2986,10 +3142,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2997,10 +3153,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -3008,10 +3164,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -3019,10 +3175,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -3030,10 +3186,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -3041,10 +3197,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -3052,10 +3208,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -3063,90 +3219,90 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3162,43 +3318,43 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -3206,29 +3362,29 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="B138" t="s">
         <v>31</v>
@@ -3239,13 +3395,13 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,51 +3409,520 @@
         <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B146" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>85</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>75</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>152</v>
       </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>4</v>
+      <c r="B159" t="s">
+        <v>154</v>
+      </c>
+      <c r="C159" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>79</v>
+      </c>
+      <c r="B164" t="s">
+        <v>155</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>50</v>
+      </c>
+      <c r="B166" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>84</v>
+      </c>
+      <c r="B169" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>69</v>
+      </c>
+      <c r="B175" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>72</v>
+      </c>
+      <c r="B177" t="s">
+        <v>164</v>
+      </c>
+      <c r="C177" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" t="s">
+        <v>164</v>
+      </c>
+      <c r="C178" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>78</v>
+      </c>
+      <c r="B179" t="s">
+        <v>164</v>
+      </c>
+      <c r="C179" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" t="s">
+        <v>164</v>
+      </c>
+      <c r="C181" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C130">
-    <sortCondition ref="C2:C130"/>
-    <sortCondition ref="A2:A130"/>
+  <sortState ref="A2:C174">
+    <sortCondition ref="B2:B174"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509BAE54-7EDA-EE4F-9975-606A4B81BFC2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B9B8EF-CE8C-5B4C-8F93-E6CB87C16E8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0D58B-80AE-F241-970A-7AE2B912E988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="172">
   <si>
     <t>Pe</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>PeTexasRed</t>
+  </si>
+  <si>
+    <t>CFSE</t>
   </si>
 </sst>
 </file>
@@ -872,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5135D16-BC18-F64E-8E92-7EBC3EF6EA9B}">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,6 +1159,11 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1863,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:A181"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3863,6 +3871,50 @@
         <v>164</v>
       </c>
       <c r="C181" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>171</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>171</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>171</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>171</v>
+      </c>
+      <c r="B185" t="s">
+        <v>153</v>
+      </c>
+      <c r="C185" t="s">
         <v>167</v>
       </c>
     </row>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0D58B-80AE-F241-970A-7AE2B912E988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE730569-0C64-5C44-8947-1414EE01872D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="CYT" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="175">
   <si>
     <t>Pe</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>CFSE</t>
+  </si>
+  <si>
+    <t>eF670</t>
+  </si>
+  <si>
+    <t>eFluor670</t>
+  </si>
+  <si>
+    <t>eF450</t>
   </si>
 </sst>
 </file>
@@ -875,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5135D16-BC18-F64E-8E92-7EBC3EF6EA9B}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,6 +1173,16 @@
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1871,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2685,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -2677,7 +2696,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -2688,7 +2707,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -2699,7 +2718,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -2710,7 +2729,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -2721,18 +2740,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -2743,7 +2762,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -2754,7 +2773,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -2765,7 +2784,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -2776,7 +2795,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -2787,7 +2806,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -2798,7 +2817,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
@@ -2809,7 +2828,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -2820,29 +2839,29 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -2853,7 +2872,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -2864,7 +2883,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
@@ -2875,7 +2894,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
@@ -2886,7 +2905,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
@@ -2897,7 +2916,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
@@ -2908,7 +2927,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
@@ -2919,10 +2938,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2930,10 +2949,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2941,10 +2960,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2952,10 +2971,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -2963,10 +2982,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2974,10 +2993,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2985,10 +3004,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -2996,10 +3015,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -3007,10 +3026,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -3018,40 +3037,40 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B107" t="s">
         <v>34</v>
@@ -3062,7 +3081,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
         <v>34</v>
@@ -3073,7 +3092,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
         <v>34</v>
@@ -3084,7 +3103,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
         <v>34</v>
@@ -3095,7 +3114,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
         <v>34</v>
@@ -3106,13 +3125,13 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3120,10 +3139,10 @@
         <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3131,18 +3150,18 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -3150,10 +3169,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -3161,10 +3180,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -3172,10 +3191,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -3183,10 +3202,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -3194,10 +3213,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -3205,10 +3224,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -3216,10 +3235,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -3227,43 +3246,43 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -3271,10 +3290,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -3282,10 +3301,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -3293,10 +3312,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -3304,10 +3323,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -3315,10 +3334,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -3326,7 +3345,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
@@ -3337,43 +3356,43 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -3381,10 +3400,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -3392,10 +3411,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -3403,10 +3422,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -3414,7 +3433,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
@@ -3425,40 +3444,40 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s">
         <v>158</v>
@@ -3469,7 +3488,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
         <v>158</v>
@@ -3480,7 +3499,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
         <v>158</v>
@@ -3491,7 +3510,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
         <v>158</v>
@@ -3502,7 +3521,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
         <v>158</v>
@@ -3513,7 +3532,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>158</v>
@@ -3524,10 +3543,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C150" t="s">
         <v>167</v>
@@ -3535,10 +3554,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C151" t="s">
         <v>167</v>
@@ -3546,10 +3565,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C152" t="s">
         <v>167</v>
@@ -3557,10 +3576,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
         <v>167</v>
@@ -3568,10 +3587,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
         <v>167</v>
@@ -3579,10 +3598,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
         <v>167</v>
@@ -3590,10 +3609,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B156" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
         <v>167</v>
@@ -3601,7 +3620,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B157" t="s">
         <v>153</v>
@@ -3612,10 +3631,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" t="s">
         <v>167</v>
@@ -3623,10 +3642,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
         <v>167</v>
@@ -3634,10 +3653,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -3645,10 +3664,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s">
         <v>167</v>
@@ -3656,10 +3675,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C162" t="s">
         <v>167</v>
@@ -3667,10 +3686,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C163" t="s">
         <v>167</v>
@@ -3678,10 +3697,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C164" t="s">
         <v>167</v>
@@ -3689,10 +3708,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C165" t="s">
         <v>167</v>
@@ -3700,10 +3719,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
@@ -3711,10 +3730,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C167" t="s">
         <v>167</v>
@@ -3722,10 +3741,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C168" t="s">
         <v>167</v>
@@ -3733,10 +3752,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C169" t="s">
         <v>167</v>
@@ -3744,10 +3763,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="B170" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C170" t="s">
         <v>167</v>
@@ -3755,10 +3774,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C171" t="s">
         <v>167</v>
@@ -3766,10 +3785,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C172" t="s">
         <v>167</v>
@@ -3777,10 +3796,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B173" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C173" t="s">
         <v>167</v>
@@ -3788,10 +3807,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C174" t="s">
         <v>167</v>
@@ -3799,10 +3818,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C175" t="s">
         <v>167</v>
@@ -3810,10 +3829,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C176" t="s">
         <v>167</v>
@@ -3821,10 +3840,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C177" t="s">
         <v>167</v>
@@ -3832,10 +3851,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C178" t="s">
         <v>167</v>
@@ -3843,10 +3862,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" t="s">
         <v>167</v>
@@ -3854,7 +3873,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s">
         <v>164</v>
@@ -3865,7 +3884,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B181" t="s">
         <v>164</v>
@@ -3876,51 +3895,183 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="C182" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>149</v>
+      </c>
+      <c r="B185" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>171</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>171</v>
+      </c>
+      <c r="B189" t="s">
         <v>153</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C189" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>172</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>173</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>173</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>172</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>173</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" t="s">
+        <v>162</v>
+      </c>
+      <c r="C196" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>173</v>
+      </c>
+      <c r="B197" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C174">
-    <sortCondition ref="B2:B174"/>
+  <sortState ref="A2:C178">
+    <sortCondition ref="B2:B178"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE730569-0C64-5C44-8947-1414EE01872D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E41BA-900B-5546-9BAC-E78FB6753F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="460" windowWidth="32660" windowHeight="35540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28880" yWindow="500" windowWidth="32660" windowHeight="35500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$128</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="189">
   <si>
     <t>Pe</t>
   </si>
@@ -551,16 +561,64 @@
   </si>
   <si>
     <t>eF450</t>
+  </si>
+  <si>
+    <t>Camilla</t>
+  </si>
+  <si>
+    <t>MACSQuant Analyzer 10,2.11.1812.19581</t>
+  </si>
+  <si>
+    <t>FL1-A</t>
+  </si>
+  <si>
+    <t>FL10-A</t>
+  </si>
+  <si>
+    <t>FL11-A</t>
+  </si>
+  <si>
+    <t>FL12-A</t>
+  </si>
+  <si>
+    <t>FL2-A</t>
+  </si>
+  <si>
+    <t>FL3-A</t>
+  </si>
+  <si>
+    <t>FL4-A</t>
+  </si>
+  <si>
+    <t>FL5-A</t>
+  </si>
+  <si>
+    <t>FL6-A</t>
+  </si>
+  <si>
+    <t>FL7-A</t>
+  </si>
+  <si>
+    <t>FL8-A</t>
+  </si>
+  <si>
+    <t>FL9-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1195,7 +1253,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1890,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,10 +1976,10 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1929,10 +1987,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,10 +1998,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1951,10 +2009,10 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1962,32 +2020,32 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,29 +2053,29 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2025,10 +2083,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2036,10 +2094,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2047,10 +2105,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2058,10 +2116,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2069,65 +2127,65 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2135,10 +2193,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2146,10 +2204,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2157,54 +2215,54 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2212,10 +2270,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2223,10 +2281,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2234,10 +2292,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2245,10 +2303,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2256,10 +2314,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2267,10 +2325,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2278,10 +2336,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2289,10 +2347,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2300,615 +2358,615 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -2916,10 +2974,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -2927,10 +2985,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -2938,10 +2996,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2949,10 +3007,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2960,10 +3018,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2971,10 +3029,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -2982,10 +3040,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2993,10 +3051,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -3004,10 +3062,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -3015,10 +3073,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -3026,10 +3084,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -3037,10 +3095,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -3048,10 +3106,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -3059,10 +3117,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -3070,219 +3128,219 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -3290,10 +3348,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -3301,10 +3359,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -3312,10 +3370,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -3323,10 +3381,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -3334,10 +3392,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -3345,10 +3403,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -3356,10 +3414,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -3367,10 +3425,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -3378,10 +3436,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -3389,582 +3447,582 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C156" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B158" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="B160" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B161" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="C162" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B171" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B180" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="C180" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C183" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C184" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B185" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3972,65 +4030,65 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C191" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -4038,10 +4096,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -4049,30 +4107,472 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B196" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>151</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" t="s">
+        <v>177</v>
+      </c>
+      <c r="C198" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" t="s">
+        <v>177</v>
+      </c>
+      <c r="C199" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200" t="s">
+        <v>177</v>
+      </c>
+      <c r="C200" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201" t="s">
+        <v>177</v>
+      </c>
+      <c r="C201" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>174</v>
+      </c>
+      <c r="B202" t="s">
+        <v>177</v>
+      </c>
+      <c r="C202" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>147</v>
+      </c>
+      <c r="B203" t="s">
+        <v>177</v>
+      </c>
+      <c r="C203" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>87</v>
+      </c>
+      <c r="B204" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" t="s">
+        <v>177</v>
+      </c>
+      <c r="C205" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>177</v>
+      </c>
+      <c r="C206" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>85</v>
+      </c>
+      <c r="B207" t="s">
+        <v>177</v>
+      </c>
+      <c r="C207" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" t="s">
+        <v>181</v>
+      </c>
+      <c r="C209" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>57</v>
+      </c>
+      <c r="B210" t="s">
+        <v>181</v>
+      </c>
+      <c r="C210" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>47</v>
+      </c>
+      <c r="B211" t="s">
+        <v>182</v>
+      </c>
+      <c r="C211" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>182</v>
+      </c>
+      <c r="C213" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>89</v>
+      </c>
+      <c r="B214" t="s">
+        <v>182</v>
+      </c>
+      <c r="C214" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>150</v>
+      </c>
+      <c r="B215" t="s">
+        <v>182</v>
+      </c>
+      <c r="C215" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>171</v>
+      </c>
+      <c r="B216" t="s">
+        <v>182</v>
+      </c>
+      <c r="C216" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>183</v>
+      </c>
+      <c r="C217" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>152</v>
+      </c>
+      <c r="B218" t="s">
+        <v>183</v>
+      </c>
+      <c r="C218" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>37</v>
+      </c>
+      <c r="B219" t="s">
+        <v>184</v>
+      </c>
+      <c r="C219" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>144</v>
+      </c>
+      <c r="B220" t="s">
+        <v>184</v>
+      </c>
+      <c r="C220" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>41</v>
+      </c>
+      <c r="B221" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>84</v>
+      </c>
+      <c r="B222" t="s">
+        <v>184</v>
+      </c>
+      <c r="C222" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" t="s">
+        <v>185</v>
+      </c>
+      <c r="C223" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>43</v>
+      </c>
+      <c r="B224" t="s">
+        <v>185</v>
+      </c>
+      <c r="C224" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>148</v>
+      </c>
+      <c r="B225" t="s">
+        <v>185</v>
+      </c>
+      <c r="C225" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>151</v>
+      </c>
+      <c r="B226" t="s">
+        <v>185</v>
+      </c>
+      <c r="C226" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>186</v>
+      </c>
+      <c r="C227" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" t="s">
+        <v>186</v>
+      </c>
+      <c r="C228" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>66</v>
+      </c>
+      <c r="B229" t="s">
+        <v>186</v>
+      </c>
+      <c r="C229" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>172</v>
+      </c>
+      <c r="B230" t="s">
+        <v>186</v>
+      </c>
+      <c r="C230" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>173</v>
       </c>
-      <c r="B197" t="s">
-        <v>162</v>
-      </c>
-      <c r="C197" t="s">
-        <v>167</v>
+      <c r="B231" t="s">
+        <v>186</v>
+      </c>
+      <c r="C231" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>48</v>
+      </c>
+      <c r="B232" t="s">
+        <v>187</v>
+      </c>
+      <c r="C232" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>72</v>
+      </c>
+      <c r="B233" t="s">
+        <v>187</v>
+      </c>
+      <c r="C233" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>83</v>
+      </c>
+      <c r="B234" t="s">
+        <v>187</v>
+      </c>
+      <c r="C234" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235" t="s">
+        <v>187</v>
+      </c>
+      <c r="C235" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" t="s">
+        <v>187</v>
+      </c>
+      <c r="C236" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>149</v>
+      </c>
+      <c r="B237" t="s">
+        <v>187</v>
+      </c>
+      <c r="C237" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C178">
-    <sortCondition ref="B2:B178"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C197">
+    <sortCondition ref="C2:C197"/>
+    <sortCondition ref="B2:B197"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4080,13 +4580,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509BAE54-7EDA-EE4F-9975-606A4B81BFC2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4125,6 +4629,14 @@
         <v>168</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vonskopnik/Documents/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E41BA-900B-5546-9BAC-E78FB6753F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B703CC3-26DA-B346-B29F-AC025E47AF54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28880" yWindow="500" windowWidth="32660" windowHeight="35500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11540" yWindow="460" windowWidth="22060" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
@@ -22,21 +22,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="193">
   <si>
     <t>Pe</t>
   </si>
@@ -603,6 +593,18 @@
   </si>
   <si>
     <t>FL9-A</t>
+  </si>
+  <si>
+    <t>MacsQuant16</t>
+  </si>
+  <si>
+    <t>PerCPVio770</t>
+  </si>
+  <si>
+    <t>FL13-A</t>
+  </si>
+  <si>
+    <t>FL14-A</t>
   </si>
 </sst>
 </file>
@@ -1948,16 +1950,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4567,8 +4570,536 @@
         <v>175</v>
       </c>
     </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>65</v>
+      </c>
+      <c r="B238" t="s">
+        <v>177</v>
+      </c>
+      <c r="C238" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" t="s">
+        <v>177</v>
+      </c>
+      <c r="C239" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>143</v>
+      </c>
+      <c r="B240" t="s">
+        <v>177</v>
+      </c>
+      <c r="C240" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241" t="s">
+        <v>177</v>
+      </c>
+      <c r="C241" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>174</v>
+      </c>
+      <c r="B242" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>147</v>
+      </c>
+      <c r="B243" t="s">
+        <v>177</v>
+      </c>
+      <c r="C243" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>87</v>
+      </c>
+      <c r="B244" t="s">
+        <v>177</v>
+      </c>
+      <c r="C244" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" t="s">
+        <v>177</v>
+      </c>
+      <c r="C245" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>177</v>
+      </c>
+      <c r="C246" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>85</v>
+      </c>
+      <c r="B247" t="s">
+        <v>177</v>
+      </c>
+      <c r="C247" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>33</v>
+      </c>
+      <c r="B248" t="s">
+        <v>181</v>
+      </c>
+      <c r="C248" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>75</v>
+      </c>
+      <c r="B249" t="s">
+        <v>181</v>
+      </c>
+      <c r="C249" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>57</v>
+      </c>
+      <c r="B250" t="s">
+        <v>181</v>
+      </c>
+      <c r="C250" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>169</v>
+      </c>
+      <c r="B251" t="s">
+        <v>182</v>
+      </c>
+      <c r="C251" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>183</v>
+      </c>
+      <c r="C252" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>53</v>
+      </c>
+      <c r="B253" t="s">
+        <v>184</v>
+      </c>
+      <c r="C253" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>47</v>
+      </c>
+      <c r="B254" t="s">
+        <v>185</v>
+      </c>
+      <c r="C254" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>19</v>
+      </c>
+      <c r="B255" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>185</v>
+      </c>
+      <c r="C256" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>89</v>
+      </c>
+      <c r="B257" t="s">
+        <v>185</v>
+      </c>
+      <c r="C257" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>150</v>
+      </c>
+      <c r="B258" t="s">
+        <v>185</v>
+      </c>
+      <c r="C258" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>171</v>
+      </c>
+      <c r="B259" t="s">
+        <v>185</v>
+      </c>
+      <c r="C259" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>186</v>
+      </c>
+      <c r="C260" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>152</v>
+      </c>
+      <c r="B261" t="s">
+        <v>186</v>
+      </c>
+      <c r="C261" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>79</v>
+      </c>
+      <c r="B262" t="s">
+        <v>187</v>
+      </c>
+      <c r="C262" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>86</v>
+      </c>
+      <c r="B263" t="s">
+        <v>187</v>
+      </c>
+      <c r="C263" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>50</v>
+      </c>
+      <c r="B264" t="s">
+        <v>187</v>
+      </c>
+      <c r="C264" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>37</v>
+      </c>
+      <c r="B265" t="s">
+        <v>188</v>
+      </c>
+      <c r="C265" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>41</v>
+      </c>
+      <c r="B266" t="s">
+        <v>178</v>
+      </c>
+      <c r="C266" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>84</v>
+      </c>
+      <c r="B267" t="s">
+        <v>178</v>
+      </c>
+      <c r="C267" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>144</v>
+      </c>
+      <c r="B268" t="s">
+        <v>178</v>
+      </c>
+      <c r="C268" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>190</v>
+      </c>
+      <c r="B269" t="s">
+        <v>178</v>
+      </c>
+      <c r="C269" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" t="s">
+        <v>179</v>
+      </c>
+      <c r="C270" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>43</v>
+      </c>
+      <c r="B271" t="s">
+        <v>179</v>
+      </c>
+      <c r="C271" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>148</v>
+      </c>
+      <c r="B272" t="s">
+        <v>180</v>
+      </c>
+      <c r="C272" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>151</v>
+      </c>
+      <c r="B273" t="s">
+        <v>180</v>
+      </c>
+      <c r="C273" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274" t="s">
+        <v>180</v>
+      </c>
+      <c r="C274" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" t="s">
+        <v>180</v>
+      </c>
+      <c r="C275" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>66</v>
+      </c>
+      <c r="B276" t="s">
+        <v>180</v>
+      </c>
+      <c r="C276" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>172</v>
+      </c>
+      <c r="B277" t="s">
+        <v>180</v>
+      </c>
+      <c r="C277" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>173</v>
+      </c>
+      <c r="B278" t="s">
+        <v>180</v>
+      </c>
+      <c r="C278" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>69</v>
+      </c>
+      <c r="B279" t="s">
+        <v>191</v>
+      </c>
+      <c r="C279" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>48</v>
+      </c>
+      <c r="B280" t="s">
+        <v>192</v>
+      </c>
+      <c r="C280" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>72</v>
+      </c>
+      <c r="B281" t="s">
+        <v>192</v>
+      </c>
+      <c r="C281" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>83</v>
+      </c>
+      <c r="B282" t="s">
+        <v>192</v>
+      </c>
+      <c r="C282" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>78</v>
+      </c>
+      <c r="B283" t="s">
+        <v>192</v>
+      </c>
+      <c r="C283" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" t="s">
+        <v>192</v>
+      </c>
+      <c r="C284" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>149</v>
+      </c>
+      <c r="B285" t="s">
+        <v>192</v>
+      </c>
+      <c r="C285" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C197">
+  <sortState ref="A2:C197">
     <sortCondition ref="C2:C197"/>
     <sortCondition ref="B2:B197"/>
   </sortState>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vonskopnik/Documents/R_packages/fcexpr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B703CC3-26DA-B346-B29F-AC025E47AF54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401CE79-014F-EA40-886F-2A1C6AB3F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="460" windowWidth="22060" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8000" yWindow="920" windowWidth="35500" windowHeight="29680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fluorochromes" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="207">
   <si>
     <t>Pe</t>
   </si>
@@ -605,6 +605,48 @@
   </si>
   <si>
     <t>FL14-A</t>
+  </si>
+  <si>
+    <t>V1-A</t>
+  </si>
+  <si>
+    <t>V2-A</t>
+  </si>
+  <si>
+    <t>V3-A</t>
+  </si>
+  <si>
+    <t>V4-A</t>
+  </si>
+  <si>
+    <t>V5-A</t>
+  </si>
+  <si>
+    <t>B1-A</t>
+  </si>
+  <si>
+    <t>B2-A</t>
+  </si>
+  <si>
+    <t>B3-A</t>
+  </si>
+  <si>
+    <t>B4-A</t>
+  </si>
+  <si>
+    <t>B5-A</t>
+  </si>
+  <si>
+    <t>B6-A</t>
+  </si>
+  <si>
+    <t>R1-A</t>
+  </si>
+  <si>
+    <t>R2-A</t>
+  </si>
+  <si>
+    <t>R3-A</t>
   </si>
 </sst>
 </file>
@@ -1950,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5098,8 +5140,536 @@
         <v>189</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>65</v>
+      </c>
+      <c r="B286" t="s">
+        <v>193</v>
+      </c>
+      <c r="C286" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>32</v>
+      </c>
+      <c r="B287" t="s">
+        <v>193</v>
+      </c>
+      <c r="C287" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>143</v>
+      </c>
+      <c r="B288" t="s">
+        <v>193</v>
+      </c>
+      <c r="C288" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>49</v>
+      </c>
+      <c r="B289" t="s">
+        <v>193</v>
+      </c>
+      <c r="C289" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>174</v>
+      </c>
+      <c r="B290" t="s">
+        <v>193</v>
+      </c>
+      <c r="C290" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>147</v>
+      </c>
+      <c r="B291" t="s">
+        <v>193</v>
+      </c>
+      <c r="C291" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>87</v>
+      </c>
+      <c r="B292" t="s">
+        <v>193</v>
+      </c>
+      <c r="C292" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>56</v>
+      </c>
+      <c r="B293" t="s">
+        <v>193</v>
+      </c>
+      <c r="C293" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" t="s">
+        <v>193</v>
+      </c>
+      <c r="C294" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>85</v>
+      </c>
+      <c r="B295" t="s">
+        <v>193</v>
+      </c>
+      <c r="C295" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>33</v>
+      </c>
+      <c r="B296" t="s">
+        <v>194</v>
+      </c>
+      <c r="C296" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>75</v>
+      </c>
+      <c r="B297" t="s">
+        <v>194</v>
+      </c>
+      <c r="C297" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>57</v>
+      </c>
+      <c r="B298" t="s">
+        <v>194</v>
+      </c>
+      <c r="C298" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>169</v>
+      </c>
+      <c r="B299" t="s">
+        <v>195</v>
+      </c>
+      <c r="C299" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" t="s">
+        <v>196</v>
+      </c>
+      <c r="C300" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>53</v>
+      </c>
+      <c r="B301" t="s">
+        <v>197</v>
+      </c>
+      <c r="C301" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>47</v>
+      </c>
+      <c r="B302" t="s">
+        <v>198</v>
+      </c>
+      <c r="C302" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>19</v>
+      </c>
+      <c r="B303" t="s">
+        <v>198</v>
+      </c>
+      <c r="C303" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" t="s">
+        <v>198</v>
+      </c>
+      <c r="C304" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>89</v>
+      </c>
+      <c r="B305" t="s">
+        <v>198</v>
+      </c>
+      <c r="C305" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>150</v>
+      </c>
+      <c r="B306" t="s">
+        <v>198</v>
+      </c>
+      <c r="C306" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>171</v>
+      </c>
+      <c r="B307" t="s">
+        <v>198</v>
+      </c>
+      <c r="C307" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>199</v>
+      </c>
+      <c r="C308" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>152</v>
+      </c>
+      <c r="B309" t="s">
+        <v>199</v>
+      </c>
+      <c r="C309" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>79</v>
+      </c>
+      <c r="B310" t="s">
+        <v>200</v>
+      </c>
+      <c r="C310" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>86</v>
+      </c>
+      <c r="B311" t="s">
+        <v>200</v>
+      </c>
+      <c r="C311" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>50</v>
+      </c>
+      <c r="B312" t="s">
+        <v>200</v>
+      </c>
+      <c r="C312" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>37</v>
+      </c>
+      <c r="B313" t="s">
+        <v>201</v>
+      </c>
+      <c r="C313" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>41</v>
+      </c>
+      <c r="B314" t="s">
+        <v>202</v>
+      </c>
+      <c r="C314" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>84</v>
+      </c>
+      <c r="B315" t="s">
+        <v>202</v>
+      </c>
+      <c r="C315" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>144</v>
+      </c>
+      <c r="B316" t="s">
+        <v>202</v>
+      </c>
+      <c r="C316" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>190</v>
+      </c>
+      <c r="B317" t="s">
+        <v>203</v>
+      </c>
+      <c r="C317" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>27</v>
+      </c>
+      <c r="B318" t="s">
+        <v>203</v>
+      </c>
+      <c r="C318" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>43</v>
+      </c>
+      <c r="B319" t="s">
+        <v>203</v>
+      </c>
+      <c r="C319" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>148</v>
+      </c>
+      <c r="B320" t="s">
+        <v>204</v>
+      </c>
+      <c r="C320" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>151</v>
+      </c>
+      <c r="B321" t="s">
+        <v>204</v>
+      </c>
+      <c r="C321" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>20</v>
+      </c>
+      <c r="B322" t="s">
+        <v>204</v>
+      </c>
+      <c r="C322" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" t="s">
+        <v>204</v>
+      </c>
+      <c r="C323" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>66</v>
+      </c>
+      <c r="B324" t="s">
+        <v>204</v>
+      </c>
+      <c r="C324" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>172</v>
+      </c>
+      <c r="B325" t="s">
+        <v>204</v>
+      </c>
+      <c r="C325" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>173</v>
+      </c>
+      <c r="B326" t="s">
+        <v>204</v>
+      </c>
+      <c r="C326" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>69</v>
+      </c>
+      <c r="B327" t="s">
+        <v>205</v>
+      </c>
+      <c r="C327" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>48</v>
+      </c>
+      <c r="B328" t="s">
+        <v>206</v>
+      </c>
+      <c r="C328" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>72</v>
+      </c>
+      <c r="B329" t="s">
+        <v>206</v>
+      </c>
+      <c r="C329" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>83</v>
+      </c>
+      <c r="B330" t="s">
+        <v>206</v>
+      </c>
+      <c r="C330" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>78</v>
+      </c>
+      <c r="B331" t="s">
+        <v>206</v>
+      </c>
+      <c r="C331" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" t="s">
+        <v>206</v>
+      </c>
+      <c r="C332" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>149</v>
+      </c>
+      <c r="B333" t="s">
+        <v>206</v>
+      </c>
+      <c r="C333" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C197">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C197">
     <sortCondition ref="C2:C197"/>
     <sortCondition ref="B2:B197"/>
   </sortState>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401CE79-014F-EA40-886F-2A1C6AB3F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9108C-12F6-A442-9180-057AAE1C9F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="920" windowWidth="35500" windowHeight="29680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="CYT" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="208">
   <si>
     <t>Pe</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>R3-A</t>
+  </si>
+  <si>
+    <t>Calcein AM</t>
   </si>
 </sst>
 </file>
@@ -1992,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C333"/>
+  <dimension ref="A1:C340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="F331" sqref="F331"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2062,7 +2065,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2084,10 +2087,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -2117,10 +2120,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -2161,10 +2164,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2183,10 +2186,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2205,7 +2208,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -2216,10 +2219,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -2282,7 +2285,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -2315,10 +2318,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2392,7 +2395,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -2403,7 +2406,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -2425,10 +2428,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2447,7 +2450,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -2480,7 +2483,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2513,18 +2516,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>177</v>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>177</v>
@@ -2546,7 +2549,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
         <v>177</v>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>177</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>177</v>
@@ -2579,10 +2582,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
         <v>167</v>
@@ -2590,10 +2593,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>167</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>178</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
         <v>178</v>
@@ -2623,7 +2626,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>178</v>
@@ -2634,10 +2637,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>167</v>
@@ -2645,10 +2648,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
         <v>167</v>
@@ -2656,10 +2659,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
         <v>167</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>180</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>180</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
@@ -2700,7 +2703,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
         <v>180</v>
@@ -2711,10 +2714,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
         <v>167</v>
@@ -2722,10 +2725,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
         <v>167</v>
@@ -2733,10 +2736,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
         <v>167</v>
@@ -2744,10 +2747,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
         <v>167</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>182</v>
@@ -2766,7 +2769,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
         <v>182</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
         <v>167</v>
@@ -2788,10 +2791,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
         <v>167</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
         <v>167</v>
@@ -2810,10 +2813,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
         <v>167</v>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
         <v>184</v>
@@ -2832,7 +2835,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
         <v>184</v>
@@ -2843,10 +2846,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C77" t="s">
         <v>167</v>
@@ -2854,10 +2857,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
         <v>167</v>
@@ -2865,7 +2868,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
         <v>185</v>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
         <v>185</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
         <v>185</v>
@@ -2898,7 +2901,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
         <v>185</v>
@@ -2909,7 +2912,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
         <v>185</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B84" t="s">
         <v>185</v>
@@ -2931,7 +2934,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>185</v>
@@ -2942,7 +2945,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
         <v>185</v>
@@ -2953,10 +2956,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>167</v>
@@ -2964,10 +2967,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
         <v>167</v>
@@ -2975,7 +2978,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
         <v>186</v>
@@ -2986,10 +2989,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
         <v>167</v>
@@ -2997,10 +3000,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
         <v>167</v>
@@ -3008,29 +3011,29 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
@@ -3052,7 +3055,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -3074,10 +3077,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -3085,10 +3088,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -3096,10 +3099,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -3107,10 +3110,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -3118,10 +3121,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -3129,10 +3132,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -3140,10 +3143,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -3151,7 +3154,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
@@ -3162,7 +3165,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -3173,10 +3176,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -3184,10 +3187,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -3195,10 +3198,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -3206,10 +3209,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -3217,7 +3220,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
@@ -3250,10 +3253,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -3261,10 +3264,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -3272,10 +3275,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -3283,10 +3286,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -3294,10 +3297,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -3305,10 +3308,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -3316,10 +3319,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -3327,7 +3330,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
@@ -3338,7 +3341,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
@@ -3349,7 +3352,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
@@ -3360,7 +3363,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
@@ -3371,7 +3374,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B126" t="s">
         <v>13</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
@@ -3404,10 +3407,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -3415,10 +3418,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -3426,10 +3429,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -3437,10 +3440,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -3448,10 +3451,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B132" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -3459,10 +3462,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -3470,10 +3473,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -3481,10 +3484,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -3492,10 +3495,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -3503,10 +3506,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -3514,10 +3517,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -3525,10 +3528,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -3536,10 +3539,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -3547,10 +3550,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -3558,10 +3561,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -3569,10 +3572,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -3580,10 +3583,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -3591,10 +3594,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -3602,7 +3605,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
         <v>30</v>
@@ -3613,40 +3616,40 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -3657,7 +3660,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -3668,7 +3671,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -3679,10 +3682,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -3701,10 +3704,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -3712,10 +3715,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -3734,10 +3737,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -3756,10 +3759,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -3767,7 +3770,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
         <v>22</v>
@@ -3778,10 +3781,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B162" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -3789,10 +3792,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -3811,10 +3814,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s">
         <v>18</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
@@ -3855,10 +3858,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -3866,10 +3869,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -3877,10 +3880,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -3888,10 +3891,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -3899,7 +3902,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B173" t="s">
         <v>14</v>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="B174" t="s">
         <v>14</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B175" t="s">
         <v>14</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
         <v>14</v>
@@ -3954,7 +3957,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
@@ -3965,10 +3968,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3976,10 +3979,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3987,10 +3990,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -3998,10 +4001,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -4009,10 +4012,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -4020,10 +4023,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -4031,10 +4034,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -4042,10 +4045,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -4053,10 +4056,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B187" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -4064,10 +4067,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -4075,10 +4078,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -4086,10 +4089,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -4097,10 +4100,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -4108,10 +4111,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -4119,10 +4122,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -4130,10 +4133,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -4141,10 +4144,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -4152,10 +4155,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -4163,10 +4166,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -4174,51 +4177,51 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B201" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B202" t="s">
         <v>177</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="B203" t="s">
         <v>177</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B204" t="s">
         <v>177</v>
@@ -4251,7 +4254,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B205" t="s">
         <v>177</v>
@@ -4262,7 +4265,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="B206" t="s">
         <v>177</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B207" t="s">
         <v>177</v>
@@ -4284,10 +4287,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B208" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C208" t="s">
         <v>175</v>
@@ -4295,10 +4298,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B209" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C209" t="s">
         <v>175</v>
@@ -4306,10 +4309,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C210" t="s">
         <v>175</v>
@@ -4317,10 +4320,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B211" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C211" t="s">
         <v>175</v>
@@ -4328,10 +4331,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B212" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C212" t="s">
         <v>175</v>
@@ -4339,10 +4342,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B213" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C213" t="s">
         <v>175</v>
@@ -4350,10 +4353,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C214" t="s">
         <v>175</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B215" t="s">
         <v>182</v>
@@ -4372,7 +4375,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="B216" t="s">
         <v>182</v>
@@ -4383,10 +4386,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C217" t="s">
         <v>175</v>
@@ -4394,10 +4397,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C218" t="s">
         <v>175</v>
@@ -4405,10 +4408,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B219" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C219" t="s">
         <v>175</v>
@@ -4416,10 +4419,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B220" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C220" t="s">
         <v>175</v>
@@ -4427,10 +4430,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B221" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C221" t="s">
         <v>175</v>
@@ -4438,10 +4441,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C222" t="s">
         <v>175</v>
@@ -4449,10 +4452,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="B223" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C223" t="s">
         <v>175</v>
@@ -4460,10 +4463,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C224" t="s">
         <v>175</v>
@@ -4471,10 +4474,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B225" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C225" t="s">
         <v>175</v>
@@ -4482,10 +4485,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="B226" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C226" t="s">
         <v>175</v>
@@ -4493,10 +4496,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B227" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C227" t="s">
         <v>175</v>
@@ -4504,10 +4507,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C228" t="s">
         <v>175</v>
@@ -4515,10 +4518,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C229" t="s">
         <v>175</v>
@@ -4526,10 +4529,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B230" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C230" t="s">
         <v>175</v>
@@ -4537,10 +4540,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B231" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C231" t="s">
         <v>175</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C232" t="s">
         <v>175</v>
@@ -4559,10 +4562,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B233" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C233" t="s">
         <v>175</v>
@@ -4570,10 +4573,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B234" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C234" t="s">
         <v>175</v>
@@ -4581,10 +4584,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B235" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C235" t="s">
         <v>175</v>
@@ -4592,10 +4595,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B236" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C236" t="s">
         <v>175</v>
@@ -4603,7 +4606,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
         <v>187</v>
@@ -4614,62 +4617,62 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B238" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C238" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B239" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C239" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B240" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C240" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C241" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B242" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C242" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
         <v>177</v>
@@ -4680,7 +4683,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B244" t="s">
         <v>177</v>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B245" t="s">
         <v>177</v>
@@ -4702,7 +4705,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
         <v>177</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B247" t="s">
         <v>177</v>
@@ -4724,10 +4727,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B248" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C248" t="s">
         <v>189</v>
@@ -4735,10 +4738,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B249" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C249" t="s">
         <v>189</v>
@@ -4746,10 +4749,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C250" t="s">
         <v>189</v>
@@ -4757,10 +4760,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="B251" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C251" t="s">
         <v>189</v>
@@ -4768,10 +4771,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B252" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C252" t="s">
         <v>189</v>
@@ -4779,10 +4782,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B253" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C253" t="s">
         <v>189</v>
@@ -4790,10 +4793,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B254" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C254" t="s">
         <v>189</v>
@@ -4801,10 +4804,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B255" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C255" t="s">
         <v>189</v>
@@ -4812,10 +4815,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="B256" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C256" t="s">
         <v>189</v>
@@ -4823,10 +4826,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B257" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C257" t="s">
         <v>189</v>
@@ -4834,10 +4837,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="B258" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C258" t="s">
         <v>189</v>
@@ -4845,7 +4848,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="B259" t="s">
         <v>185</v>
@@ -4856,10 +4859,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B260" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C260" t="s">
         <v>189</v>
@@ -4867,10 +4870,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="B261" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C261" t="s">
         <v>189</v>
@@ -4878,10 +4881,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C262" t="s">
         <v>189</v>
@@ -4889,10 +4892,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B263" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C263" t="s">
         <v>189</v>
@@ -4900,10 +4903,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B264" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C264" t="s">
         <v>189</v>
@@ -4911,10 +4914,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B265" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C265" t="s">
         <v>189</v>
@@ -4922,10 +4925,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C266" t="s">
         <v>189</v>
@@ -4933,10 +4936,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B267" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C267" t="s">
         <v>189</v>
@@ -4944,10 +4947,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B268" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C268" t="s">
         <v>189</v>
@@ -4955,10 +4958,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="B269" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C269" t="s">
         <v>189</v>
@@ -4966,10 +4969,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B270" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C270" t="s">
         <v>189</v>
@@ -4977,10 +4980,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B271" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C271" t="s">
         <v>189</v>
@@ -4988,10 +4991,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="B272" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C272" t="s">
         <v>189</v>
@@ -4999,10 +5002,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="B273" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C273" t="s">
         <v>189</v>
@@ -5010,10 +5013,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B274" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C274" t="s">
         <v>189</v>
@@ -5021,10 +5024,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="B275" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C275" t="s">
         <v>189</v>
@@ -5032,10 +5035,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B276" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C276" t="s">
         <v>189</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B277" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C277" t="s">
         <v>189</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B278" t="s">
         <v>180</v>
@@ -5065,10 +5068,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B279" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C279" t="s">
         <v>189</v>
@@ -5076,10 +5079,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B280" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C280" t="s">
         <v>189</v>
@@ -5087,10 +5090,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B281" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C281" t="s">
         <v>189</v>
@@ -5098,10 +5101,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B282" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C282" t="s">
         <v>189</v>
@@ -5109,10 +5112,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B283" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C283" t="s">
         <v>189</v>
@@ -5120,10 +5123,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B284" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C284" t="s">
         <v>189</v>
@@ -5131,10 +5134,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="B285" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C285" t="s">
         <v>189</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B286" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C286" t="s">
         <v>189</v>
@@ -5153,10 +5156,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B287" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C287" t="s">
         <v>189</v>
@@ -5164,10 +5167,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="B288" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C288" t="s">
         <v>189</v>
@@ -5175,10 +5178,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B289" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C289" t="s">
         <v>189</v>
@@ -5186,10 +5189,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C290" t="s">
         <v>189</v>
@@ -5197,10 +5200,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B291" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C291" t="s">
         <v>189</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B292" t="s">
         <v>193</v>
@@ -5219,7 +5222,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B293" t="s">
         <v>193</v>
@@ -5230,7 +5233,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B294" t="s">
         <v>193</v>
@@ -5241,7 +5244,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B295" t="s">
         <v>193</v>
@@ -5252,10 +5255,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="B296" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C296" t="s">
         <v>189</v>
@@ -5263,10 +5266,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C297" t="s">
         <v>189</v>
@@ -5274,10 +5277,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B298" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C298" t="s">
         <v>189</v>
@@ -5285,10 +5288,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B299" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C299" t="s">
         <v>189</v>
@@ -5296,10 +5299,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C300" t="s">
         <v>189</v>
@@ -5307,10 +5310,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B301" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C301" t="s">
         <v>189</v>
@@ -5318,10 +5321,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B302" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C302" t="s">
         <v>189</v>
@@ -5329,10 +5332,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B303" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C303" t="s">
         <v>189</v>
@@ -5340,10 +5343,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B304" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C304" t="s">
         <v>189</v>
@@ -5351,10 +5354,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B305" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C305" t="s">
         <v>189</v>
@@ -5362,10 +5365,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B306" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C306" t="s">
         <v>189</v>
@@ -5373,10 +5376,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="B307" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C307" t="s">
         <v>189</v>
@@ -5384,10 +5387,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B308" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C308" t="s">
         <v>189</v>
@@ -5395,10 +5398,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B309" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C309" t="s">
         <v>189</v>
@@ -5406,10 +5409,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="B310" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C310" t="s">
         <v>189</v>
@@ -5417,10 +5420,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C311" t="s">
         <v>189</v>
@@ -5428,10 +5431,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B312" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C312" t="s">
         <v>189</v>
@@ -5439,10 +5442,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B313" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C313" t="s">
         <v>189</v>
@@ -5450,10 +5453,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="B314" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C314" t="s">
         <v>189</v>
@@ -5461,10 +5464,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B315" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C315" t="s">
         <v>189</v>
@@ -5472,10 +5475,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B316" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C316" t="s">
         <v>189</v>
@@ -5483,10 +5486,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="B317" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C317" t="s">
         <v>189</v>
@@ -5494,10 +5497,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B318" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C318" t="s">
         <v>189</v>
@@ -5505,10 +5508,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B319" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C319" t="s">
         <v>189</v>
@@ -5516,10 +5519,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B320" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C320" t="s">
         <v>189</v>
@@ -5527,10 +5530,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="B321" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C321" t="s">
         <v>189</v>
@@ -5538,10 +5541,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B322" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C322" t="s">
         <v>189</v>
@@ -5549,10 +5552,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="B323" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C323" t="s">
         <v>189</v>
@@ -5560,10 +5563,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="B324" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C324" t="s">
         <v>189</v>
@@ -5571,10 +5574,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="B325" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C325" t="s">
         <v>189</v>
@@ -5582,10 +5585,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="B326" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C326" t="s">
         <v>189</v>
@@ -5593,10 +5596,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B327" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C327" t="s">
         <v>189</v>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="B328" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C328" t="s">
         <v>189</v>
@@ -5615,10 +5618,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B329" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C329" t="s">
         <v>189</v>
@@ -5626,10 +5629,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B330" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C330" t="s">
         <v>189</v>
@@ -5637,10 +5640,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B331" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C331" t="s">
         <v>189</v>
@@ -5648,10 +5651,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="B332" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C332" t="s">
         <v>189</v>
@@ -5659,19 +5662,96 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>173</v>
+      </c>
+      <c r="B333" t="s">
+        <v>204</v>
+      </c>
+      <c r="C333" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>69</v>
+      </c>
+      <c r="B334" t="s">
+        <v>205</v>
+      </c>
+      <c r="C334" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>48</v>
+      </c>
+      <c r="B335" t="s">
+        <v>206</v>
+      </c>
+      <c r="C335" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>72</v>
+      </c>
+      <c r="B336" t="s">
+        <v>206</v>
+      </c>
+      <c r="C336" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>83</v>
+      </c>
+      <c r="B337" t="s">
+        <v>206</v>
+      </c>
+      <c r="C337" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>78</v>
+      </c>
+      <c r="B338" t="s">
+        <v>206</v>
+      </c>
+      <c r="C338" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" t="s">
+        <v>206</v>
+      </c>
+      <c r="C339" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>149</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B340" t="s">
         <v>206</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C340" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C197">
-    <sortCondition ref="C2:C197"/>
-    <sortCondition ref="B2:B197"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C201">
+    <sortCondition ref="C2:C201"/>
+    <sortCondition ref="B2:B201"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/channel_conjugate_matches.xlsx
+++ b/inst/extdata/channel_conjugate_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/AG_Hiepe/Christopher.Skopnik/R_packages/fcexpr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9108C-12F6-A442-9180-057AAE1C9F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E7750-4C77-9D41-B156-5EF565F62F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="920" windowWidth="35500" windowHeight="29680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="CYT" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">matches!$A$1:$C$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="211">
   <si>
     <t>Pe</t>
   </si>
@@ -650,6 +650,15 @@
   </si>
   <si>
     <t>Calcein AM</t>
+  </si>
+  <si>
+    <t>TO-PRO-3</t>
+  </si>
+  <si>
+    <t>TOPRO3</t>
+  </si>
+  <si>
+    <t>TO-PRO3</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2230,10 +2239,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2241,10 +2250,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2252,10 +2261,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2263,7 +2272,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -2274,7 +2283,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -2285,7 +2294,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -2296,7 +2305,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -2307,7 +2316,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -2318,7 +2327,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -2329,10 +2338,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2340,10 +2349,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2351,10 +2360,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2362,7 +2371,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2373,7 +2382,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2384,7 +2393,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2395,7 +2404,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -2406,7 +2415,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2417,7 +2426,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -2428,7 +2437,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -2439,10 +2448,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2450,10 +2459,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2461,10 +2470,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2472,7 +2481,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -2483,7 +2492,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -2494,7 +2503,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2505,7 +2514,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2516,7 +2525,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2527,40 +2536,40 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>177</v>
@@ -2571,7 +2580,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>177</v>
@@ -2582,7 +2591,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
         <v>177</v>
@@ -2593,7 +2602,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>177</v>
@@ -2604,10 +2613,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
         <v>167</v>
@@ -2615,10 +2624,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
         <v>167</v>
@@ -2626,10 +2635,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
         <v>167</v>
@@ -2637,7 +2646,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>178</v>
@@ -2648,7 +2657,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>178</v>
@@ -2659,10 +2668,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
         <v>167</v>
@@ -2670,10 +2679,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
         <v>167</v>
@@ -2681,10 +2690,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
         <v>167</v>
@@ -2692,10 +2701,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
         <v>167</v>
@@ -2703,10 +2712,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
         <v>167</v>
@@ -2714,10 +2723,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
         <v>167</v>
@@ -2725,10 +2734,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
         <v>167</v>
@@ -2736,10 +2745,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
         <v>167</v>
@@ -2747,10 +2756,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
         <v>167</v>
@@ -2758,10 +2767,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
         <v>167</v>
@@ -2769,10 +2778,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
         <v>167</v>
@@ -2780,10 +2789,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
         <v>167</v>
@@ -2791,10 +2800,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
         <v>167</v>
@@ -2802,10 +2811,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
         <v>167</v>
@@ -2813,10 +2822,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
         <v>167</v>
@@ -2824,10 +2833,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
         <v>167</v>
@@ -2835,10 +2844,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
@@ -2846,10 +2855,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
         <v>167</v>
@@ -2857,10 +2866,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
         <v>167</v>
@@ -2868,10 +2877,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C79" t="s">
         <v>167</v>
@@ -2879,10 +2888,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
         <v>167</v>
@@ -2890,10 +2899,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
         <v>167</v>
@@ -2901,10 +2910,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s">
         <v>167</v>
@@ -2912,10 +2921,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
         <v>167</v>
@@ -2923,10 +2932,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
         <v>167</v>
@@ -2934,7 +2943,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
         <v>185</v>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>185</v>
@@ -2956,7 +2965,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
         <v>185</v>
@@ -2967,7 +2976,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
         <v>185</v>
@@ -2978,10 +2987,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C89" t="s">
         <v>167</v>
@@ -2989,10 +2998,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
         <v>167</v>
@@ -3000,10 +3009,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
         <v>167</v>
@@ -3011,10 +3020,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
         <v>167</v>
@@ -3022,10 +3031,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C93" t="s">
         <v>167</v>
@@ -3033,73 +3042,73 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
@@ -3110,10 +3119,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -3121,10 +3130,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -3132,10 +3141,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -3143,10 +3152,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -3154,10 +3163,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -3165,10 +3174,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -3176,10 +3185,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -3187,10 +3196,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -3198,10 +3207,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -3209,10 +3218,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -3220,10 +3229,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -3231,10 +3240,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -3242,10 +3251,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -3253,10 +3262,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -3264,10 +3273,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -3275,10 +3284,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -3286,10 +3295,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -3297,10 +3306,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -3308,10 +3317,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -3319,10 +3328,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -3330,10 +3339,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -3341,10 +3350,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -3352,10 +3361,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -3363,10 +3372,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -3374,10 +3383,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -3385,10 +3394,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -3396,10 +3405,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -3407,10 +3416,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -3418,10 +3427,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -3429,7 +3438,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
@@ -3440,10 +3449,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -3451,10 +3460,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -3462,10 +3471,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -3473,10 +3482,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -3484,10 +3493,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -3495,10 +3504,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -3506,10 +3515,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -3517,10 +3526,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -3528,10 +3537,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -3539,10 +3548,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -3550,10 +3559,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -3561,10 +3570,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -3572,10 +3581,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -3583,10 +3592,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -3594,10 +3603,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -3605,10 +3614,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -3616,10 +3625,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -3627,10 +3636,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -3638,10 +3647,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -3649,109 +3658,109 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B159" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -3759,10 +3768,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -3770,10 +3779,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -3781,10 +3790,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -3792,10 +3801,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -3803,10 +3812,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -3814,10 +3823,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3825,10 +3834,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -3836,10 +3845,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -3847,10 +3856,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -3858,10 +3867,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -3869,10 +3878,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -3880,10 +3889,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -3891,10 +3900,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -3902,10 +3911,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -3913,10 +3922,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -3924,10 +3933,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -3935,10 +3944,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -3946,10 +3955,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3957,10 +3966,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -3968,10 +3977,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -3979,10 +3988,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3990,10 +3999,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -4001,10 +4010,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -4012,10 +4021,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -4023,10 +4032,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -4034,10 +4043,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -4045,10 +4054,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -4056,10 +4065,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -4067,10 +4076,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -4078,10 +4087,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -4089,10 +4098,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="B190" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -4100,10 +4109,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B191" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -4111,10 +4120,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -4122,10 +4131,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -4133,10 +4142,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -4144,10 +4153,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -4155,10 +4164,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -4166,10 +4175,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -4177,10 +4186,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -4188,10 +4197,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -4199,10 +4208,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -4210,10 +4219,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -4221,142 +4230,142 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B202" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C202" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C203" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="B205" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="B206" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="C206" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B207" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="C207" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="C208" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="C209" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C211" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="B212" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="C212" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="B213" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="C213" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B214" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C214" t="s">
         <v>175</v>
@@ -4364,10 +4373,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B215" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C215" t="s">
         <v>175</v>
@@ -4375,10 +4384,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B216" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C216" t="s">
         <v>175</v>
@@ -4386,10 +4395,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="B217" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C217" t="s">
         <v>175</v>
@@ -4397,10 +4406,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C218" t="s">
         <v>175</v>
@@ -4408,10 +4417,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B219" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C219" t="s">
         <v>175</v>
@@ -4419,10 +4428,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B220" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C220" t="s">
         <v>175</v>
@@ -4430,10 +4439,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="B221" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C221" t="s">
         <v>175</v>
@@ -4441,10 +4450,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C222" t="s">
         <v>175</v>
@@ -4452,10 +4461,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B223" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C223" t="s">
         <v>175</v>
@@ -4463,10 +4472,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B224" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C224" t="s">
         <v>175</v>
@@ -4474,10 +4483,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C225" t="s">
         <v>175</v>
@@ -4485,10 +4494,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B226" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C226" t="s">
         <v>175</v>
@@ -4496,10 +4505,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B227" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C227" t="s">
         <v>175</v>
@@ -4507,10 +4516,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B228" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C228" t="s">
         <v>175</v>
@@ -4518,10 +4527,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="B229" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C229" t="s">
         <v>175</v>
@@ -4529,10 +4538,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C230" t="s">
         <v>175</v>
@@ -4540,10 +4549,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B231" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C231" t="s">
         <v>175</v>
@@ -4551,10 +4560,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="B232" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C232" t="s">
         <v>175</v>
@@ -4562,10 +4571,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="B233" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C233" t="s">
         <v>175</v>
@@ -4573,10 +4582,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C234" t="s">
         <v>175</v>
@@ -4584,10 +4593,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B235" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C235" t="s">
         <v>175</v>
@@ -4595,10 +4604,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C236" t="s">
         <v>175</v>
@@ -4606,10 +4615,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B237" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C237" t="s">
         <v>175</v>
@@ -4617,10 +4626,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B238" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C238" t="s">
         <v>175</v>
@@ -4628,10 +4637,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B239" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C239" t="s">
         <v>175</v>
@@ -4639,10 +4648,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B240" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C240" t="s">
         <v>175</v>
@@ -4650,10 +4659,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B241" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C241" t="s">
         <v>175</v>
@@ -4661,10 +4670,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B242" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C242" t="s">
         <v>175</v>
@@ -4672,175 +4681,175 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="B243" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C243" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C244" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="B245" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C245" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="B246" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C246" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B247" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C247" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B248" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C248" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C249" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="B250" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C250" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B251" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C251" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C252" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B253" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C253" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B254" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C254" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B255" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C255" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C256" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B257" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C257" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B258" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C258" t="s">
         <v>189</v>
@@ -4848,10 +4857,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B259" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C259" t="s">
         <v>189</v>
@@ -4859,10 +4868,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B260" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C260" t="s">
         <v>189</v>
@@ -4870,10 +4879,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="B261" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C261" t="s">
         <v>189</v>
@@ -4881,10 +4890,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="B262" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C262" t="s">
         <v>189</v>
@@ -4892,10 +4901,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B263" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C263" t="s">
         <v>189</v>
@@ -4903,10 +4912,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B264" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C264" t="s">
         <v>189</v>
@@ -4914,10 +4923,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="B265" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C265" t="s">
         <v>189</v>
@@ -4925,10 +4934,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C266" t="s">
         <v>189</v>
@@ -4936,10 +4945,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B267" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C267" t="s">
         <v>189</v>
@@ -4947,10 +4956,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B268" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C268" t="s">
         <v>189</v>
@@ -4958,10 +4967,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B269" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C269" t="s">
         <v>189</v>
@@ -4969,10 +4978,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B270" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C270" t="s">
         <v>189</v>
@@ -4980,10 +4989,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="B271" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C271" t="s">
         <v>189</v>
@@ -4991,10 +5000,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B272" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C272" t="s">
         <v>189</v>
@@ -5002,10 +5011,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B273" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C273" t="s">
         <v>189</v>
@@ -5013,10 +5022,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B274" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C274" t="s">
         <v>189</v>
@@ -5024,10 +5033,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="B275" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C275" t="s">
         <v>189</v>
@@ -5035,10 +5044,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="B276" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C276" t="s">
         <v>189</v>
@@ -5046,10 +5055,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C277" t="s">
         <v>189</v>
@@ -5057,10 +5066,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B278" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C278" t="s">
         <v>189</v>
@@ -5068,10 +5077,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B279" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C279" t="s">
         <v>189</v>
@@ -5079,10 +5088,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="B280" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C280" t="s">
         <v>189</v>
@@ -5090,10 +5099,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C281" t="s">
         <v>189</v>
@@ -5101,10 +5110,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B282" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C282" t="s">
         <v>189</v>
@@ -5112,10 +5121,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="B283" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C283" t="s">
         <v>189</v>
@@ -5123,10 +5132,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="B284" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C284" t="s">
         <v>189</v>
@@ -5134,10 +5143,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B285" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C285" t="s">
         <v>189</v>
@@ -5145,10 +5154,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B286" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C286" t="s">
         <v>189</v>
@@ -5156,10 +5165,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B287" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C287" t="s">
         <v>189</v>
@@ -5167,10 +5176,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B288" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C288" t="s">
         <v>189</v>
@@ -5178,10 +5187,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B289" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C289" t="s">
         <v>189</v>
@@ -5189,10 +5198,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="B290" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C290" t="s">
         <v>189</v>
@@ -5200,10 +5209,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C291" t="s">
         <v>189</v>
@@ -5211,10 +5220,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B292" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C292" t="s">
         <v>189</v>
@@ -5222,10 +5231,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B293" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C293" t="s">
         <v>189</v>
@@ -5233,10 +5242,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B294" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C294" t="s">
         <v>189</v>
@@ -5244,10 +5253,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B295" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C295" t="s">
         <v>189</v>
@@ -5255,10 +5264,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="B296" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C296" t="s">
         <v>189</v>
@@ -5266,10 +5275,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B297" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C297" t="s">
         <v>189</v>
@@ -5277,10 +5286,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="B298" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C298" t="s">
         <v>189</v>
@@ -5288,10 +5297,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="B299" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C299" t="s">
         <v>189</v>
@@ -5299,10 +5308,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B300" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C300" t="s">
         <v>189</v>
@@ -5310,10 +5319,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="B301" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C301" t="s">
         <v>189</v>
@@ -5321,10 +5330,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="B302" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C302" t="s">
         <v>189</v>
@@ -5332,10 +5341,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B303" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C303" t="s">
         <v>189</v>
@@ -5343,10 +5352,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B304" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C304" t="s">
         <v>189</v>
@@ -5354,10 +5363,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="B305" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C305" t="s">
         <v>189</v>
@@ -5365,10 +5374,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B306" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C306" t="s">
         <v>189</v>
@@ -5376,10 +5385,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B307" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C307" t="s">
         <v>189</v>
@@ -5387,10 +5396,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C308" t="s">
         <v>189</v>
@@ -5398,10 +5407,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="B309" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C309" t="s">
         <v>189</v>
@@ -5409,10 +5418,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="B310" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C310" t="s">
         <v>189</v>
@@ -5420,10 +5429,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B311" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C311" t="s">
         <v>189</v>
@@ -5431,10 +5440,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B312" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C312" t="s">
         <v>189</v>
@@ -5442,10 +5451,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="B313" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C313" t="s">
         <v>189</v>
@@ -5453,10 +5462,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B314" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C314" t="s">
         <v>189</v>
@@ -5464,10 +5473,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B315" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C315" t="s">
         <v>189</v>
@@ -5475,10 +5484,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="B316" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C316" t="s">
         <v>189</v>
@@ -5486,10 +5495,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B317" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C317" t="s">
         <v>189</v>
@@ -5497,10 +5506,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C318" t="s">
         <v>189</v>
@@ -5508,10 +5517,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B319" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C319" t="s">
         <v>189</v>
@@ -5519,10 +5528,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B320" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C320" t="s">
         <v>189</v>
@@ -5530,10 +5539,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B321" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C321" t="s">
         <v>189</v>
@@ -5541,10 +5550,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B322" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C322" t="s">
         <v>189</v>
@@ -5552,10 +5561,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B323" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C323" t="s">
         <v>189</v>
@@ -5563,10 +5572,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B324" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C324" t="s">
         <v>189</v>
@@ -5574,10 +5583,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B325" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C325" t="s">
         <v>189</v>
@@ -5585,10 +5594,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B326" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C326" t="s">
         <v>189</v>
@@ -5596,10 +5605,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="B327" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C327" t="s">
         <v>189</v>
@@ -5607,10 +5616,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="B328" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C328" t="s">
         <v>189</v>
@@ -5618,10 +5627,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C329" t="s">
         <v>189</v>
@@ -5629,10 +5638,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B330" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C330" t="s">
         <v>189</v>
@@ -5640,10 +5649,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="B331" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C331" t="s">
         <v>189</v>
@@ -5651,10 +5660,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B332" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C332" t="s">
         <v>189</v>
@@ -5662,10 +5671,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="B333" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C333" t="s">
         <v>189</v>
@@ -5673,10 +5682,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B334" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C334" t="s">
         <v>189</v>
@@ -5684,10 +5693,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B335" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C335" t="s">
         <v>189</v>
@@ -5695,10 +5704,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B336" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C336" t="s">
         <v>189</v>
@@ -5706,10 +5715,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B337" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C337" t="s">
         <v>189</v>
@@ -5717,10 +5726,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B338" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C338" t="s">
         <v>189</v>
@@ -5728,10 +5737,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B339" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C339" t="s">
         <v>189</v>
@@ -5739,19 +5748,217 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>84</v>
+      </c>
+      <c r="B340" t="s">
+        <v>202</v>
+      </c>
+      <c r="C340" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>144</v>
+      </c>
+      <c r="B341" t="s">
+        <v>202</v>
+      </c>
+      <c r="C341" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>190</v>
+      </c>
+      <c r="B342" t="s">
+        <v>203</v>
+      </c>
+      <c r="C342" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>27</v>
+      </c>
+      <c r="B343" t="s">
+        <v>203</v>
+      </c>
+      <c r="C343" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" t="s">
+        <v>203</v>
+      </c>
+      <c r="C344" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>148</v>
+      </c>
+      <c r="B345" t="s">
+        <v>204</v>
+      </c>
+      <c r="C345" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>151</v>
+      </c>
+      <c r="B346" t="s">
+        <v>204</v>
+      </c>
+      <c r="C346" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>20</v>
+      </c>
+      <c r="B347" t="s">
+        <v>204</v>
+      </c>
+      <c r="C347" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>23</v>
+      </c>
+      <c r="B348" t="s">
+        <v>204</v>
+      </c>
+      <c r="C348" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>66</v>
+      </c>
+      <c r="B349" t="s">
+        <v>204</v>
+      </c>
+      <c r="C349" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>172</v>
+      </c>
+      <c r="B350" t="s">
+        <v>204</v>
+      </c>
+      <c r="C350" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>173</v>
+      </c>
+      <c r="B351" t="s">
+        <v>204</v>
+      </c>
+      <c r="C351" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>69</v>
+      </c>
+      <c r="B352" t="s">
+        <v>205</v>
+      </c>
+      <c r="C352" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>48</v>
+      </c>
+      <c r="B353" t="s">
+        <v>206</v>
+      </c>
+      <c r="C353" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>72</v>
+      </c>
+      <c r="B354" t="s">
+        <v>206</v>
+      </c>
+      <c r="C354" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>83</v>
+      </c>
+      <c r="B355" t="s">
+        <v>206</v>
+      </c>
+      <c r="C355" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>78</v>
+      </c>
+      <c r="B356" t="s">
+        <v>206</v>
+      </c>
+      <c r="C356" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>206</v>
+      </c>
+      <c r="C357" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>149</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B358" t="s">
         <v>206</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C358" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C201">
-    <sortCondition ref="C2:C201"/>
-    <sortCondition ref="B2:B201"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C213">
+    <sortCondition ref="C2:C213"/>
+    <sortCondition ref="B2:B213"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
